--- a/console/Domain-Name-and-Website/域名诊断国际化中文0428.xlsx
+++ b/console/Domain-Name-and-Website/域名诊断国际化中文0428.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.4\console;Domain-Name-and-Website;域名诊断国际化中文0428（2）-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GTCOM\JD\!Source\en\console\Domain-Name-and-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="1560" windowWidth="28095" windowHeight="17445"/>
+    <workbookView xWindow="2748" yWindow="1560" windowWidth="28092" windowHeight="17448"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -29,32 +29,11 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>域名健康诊断</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Domain Health Diagnosis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>全面的智能化域名诊断，随时检查域名健康情况</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Comprehensive intelligent domain diagnosis to check the domain health status at any time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -68,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Diagnosis Items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -85,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Diagnosis Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Whois</t>
     </r>
@@ -105,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Whois Diagnosis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>HTTP</t>
     </r>
@@ -125,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HTTP Diagnosis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>NS</t>
     </r>
@@ -145,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NS Diagnosis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>dig+trace</t>
     </r>
@@ -165,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dig+trace Diagnosis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -747,14 +702,43 @@
   </si>
   <si>
     <t>A record is not set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名健康诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comprehensive intelligent domain diagnostics to check the domain health status at any time</t>
+  </si>
+  <si>
+    <t>diagnostics Items</t>
+  </si>
+  <si>
+    <t>diagnostics Result</t>
+  </si>
+  <si>
+    <t>Whois diagnostics</t>
+  </si>
+  <si>
+    <t>HTTP diagnostics</t>
+  </si>
+  <si>
+    <t>NS diagnostics</t>
+  </si>
+  <si>
+    <t>dig+trace diagnostics</t>
+  </si>
+  <si>
+    <t>Domain Diagnostics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -806,7 +790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,9 +800,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1133,286 +1120,286 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.125" style="1"/>
+    <col min="1" max="1" width="35.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.90625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="2" t="s">
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
